--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -76,190 +73,187 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -620,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,16 +754,16 @@
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4528301886792453</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3636363636363636</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.282051282051282</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,69 +951,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>162</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,47 +1001,47 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="L10">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>23</v>
-      </c>
-      <c r="K10">
-        <v>0.7045454545454546</v>
-      </c>
-      <c r="L10">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6813559322033899</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,15 +1079,15 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
         <v>48</v>
@@ -1135,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6753246753246753</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6468699839486356</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L15">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6114285714285714</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.59375</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1265,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5657894736842105</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5428571428571428</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.546875</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5230769230769231</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5111111111111111</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4939759036144578</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1499,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1551,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.459016393442623</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1577,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.456140350877193</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3909774436090225</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L33">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1655,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3855421686746988</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1681,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1707,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3813229571984436</v>
+        <v>0.3852140077821012</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1733,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3504901960784313</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L37">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1759,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3157894736842105</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1785,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3095890410958904</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L39">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M39">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1811,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.308641975308642</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1837,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2949640287769784</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1863,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="L42">
         <v>55</v>
       </c>
-      <c r="K42">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L42">
-        <v>24</v>
-      </c>
       <c r="M42">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1889,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>60</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2781456953642384</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1915,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2702702702702703</v>
+        <v>0.25</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1946,16 +1916,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2631578947368421</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L45">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1967,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>154</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2407407407407407</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1993,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2376237623762376</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2019,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.232508073196986</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L48">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2045,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>713</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2100313479623825</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L49">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2071,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>252</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.1947019867549669</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L50">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M50">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2097,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.1815856777493606</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L51">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2123,47 +2093,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>640</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.1675675675675676</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L52">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M52">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>308</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1585365853658537</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2175,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1543624161073825</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2201,47 +2171,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1318181818181818</v>
+        <v>0.127027027027027</v>
       </c>
       <c r="L55">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M55">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>382</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1143552311435523</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2253,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>364</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1121718377088305</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L57">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2279,21 +2249,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1107011070110701</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2305,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1074561403508772</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2331,21 +2301,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1030927835051546</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2357,21 +2327,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>261</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1008403361344538</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2383,21 +2353,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1</v>
+        <v>0.09245742092457421</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2409,90 +2379,90 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>243</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.06557377049180328</v>
+        <v>0.07296538821328344</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>342</v>
+        <v>991</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.06063432835820896</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L64">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>1007</v>
+        <v>653</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.054519368723099</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L65">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>659</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K66">
         <v>0.05166051660516605</v>
@@ -2518,54 +2488,28 @@
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.04502164502164503</v>
+        <v>0.04506065857885615</v>
       </c>
       <c r="L67">
         <v>52</v>
       </c>
       <c r="M67">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68">
-        <v>0.04423076923076923</v>
-      </c>
-      <c r="L68">
-        <v>23</v>
-      </c>
-      <c r="M68">
-        <v>25</v>
-      </c>
-      <c r="N68">
-        <v>0.92</v>
-      </c>
-      <c r="O68">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>497</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
